--- a/assets/templates/HD2N.xlsx
+++ b/assets/templates/HD2N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\khanhmf\Project_Flutter\LabourContract\web_labor_contract\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E333654-8C19-48D9-BA57-02CEF9B9BD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902E2A0C-0A3C-42C2-894A-6CF63CA5C392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{44030DB7-F7C0-487B-9D9F-9CE74DFF5977}"/>
   </bookViews>
@@ -542,7 +542,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,14 +555,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -583,56 +577,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -722,7 +666,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -763,20 +707,71 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -790,86 +785,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1210,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E84793E-6E92-4FE8-931A-5AB1B7948146}">
   <dimension ref="A1:AC122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,141 +1188,141 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:29" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="33" t="s">
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="35"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
       <c r="Z5" s="5"/>
       <c r="AB5" s="6"/>
     </row>
     <row r="6" spans="1:29" s="7" customFormat="1" ht="206.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="24" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="24" t="s">
+      <c r="U6" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="26" t="s">
+      <c r="V6" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="27" t="s">
+      <c r="W6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="X6" s="28" t="s">
+      <c r="X6" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="28" t="s">
+      <c r="Y6" s="56" t="s">
         <v>29</v>
       </c>
       <c r="Z6" s="5"/>
@@ -1426,9 +1361,9 @@
       <c r="Y7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
     </row>
     <row r="8" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -1456,9 +1391,9 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
     </row>
     <row r="9" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -1486,9 +1421,9 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
     </row>
     <row r="10" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -1516,9 +1451,9 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
     </row>
     <row r="11" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -1546,9 +1481,9 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
     </row>
     <row r="12" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -1576,9 +1511,9 @@
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
     </row>
     <row r="13" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -1606,9 +1541,9 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
     </row>
     <row r="14" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -1636,9 +1571,9 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
     </row>
     <row r="15" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -1666,9 +1601,9 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
     </row>
     <row r="16" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -1696,9 +1631,9 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
     </row>
     <row r="17" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -1726,9 +1661,9 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
     </row>
     <row r="18" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -1756,9 +1691,9 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
     </row>
     <row r="19" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1786,9 +1721,9 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
     </row>
     <row r="20" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1816,9 +1751,9 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
     </row>
     <row r="21" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -1846,9 +1781,9 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
     </row>
     <row r="22" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1876,9 +1811,9 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
     </row>
     <row r="23" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -1906,9 +1841,9 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
     </row>
     <row r="24" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1936,9 +1871,9 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
     </row>
     <row r="25" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -1966,9 +1901,9 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
     </row>
     <row r="26" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -1996,9 +1931,9 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
     </row>
     <row r="27" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -2026,9 +1961,9 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
     </row>
     <row r="28" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -2056,9 +1991,9 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
     </row>
     <row r="29" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -2086,9 +2021,9 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
     </row>
     <row r="30" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -2116,9 +2051,9 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
     </row>
     <row r="31" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -2146,9 +2081,9 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
     </row>
     <row r="32" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -2176,9 +2111,9 @@
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
     </row>
     <row r="33" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
@@ -2206,9 +2141,9 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
     </row>
     <row r="34" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -2236,9 +2171,9 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="47"/>
+      <c r="AC34" s="47"/>
     </row>
     <row r="35" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -2266,9 +2201,9 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30"/>
+      <c r="AA35" s="47"/>
+      <c r="AB35" s="47"/>
+      <c r="AC35" s="47"/>
     </row>
     <row r="36" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -2296,9 +2231,9 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
     </row>
     <row r="37" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -2326,9 +2261,9 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="30"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
     </row>
     <row r="38" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
@@ -2356,9 +2291,9 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
     </row>
     <row r="39" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
@@ -2386,9 +2321,9 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
-      <c r="AA39" s="30"/>
-      <c r="AB39" s="30"/>
-      <c r="AC39" s="30"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
     </row>
     <row r="40" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
@@ -2416,9 +2351,9 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="47"/>
+      <c r="AC40" s="47"/>
     </row>
     <row r="41" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -2446,9 +2381,9 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
-      <c r="AA41" s="30"/>
-      <c r="AB41" s="30"/>
-      <c r="AC41" s="30"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="47"/>
+      <c r="AC41" s="47"/>
     </row>
     <row r="42" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -2476,9 +2411,9 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
-      <c r="AA42" s="30"/>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="30"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
     </row>
     <row r="43" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -2506,9 +2441,9 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
-      <c r="AA43" s="30"/>
-      <c r="AB43" s="30"/>
-      <c r="AC43" s="30"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="47"/>
+      <c r="AC43" s="47"/>
     </row>
     <row r="44" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
@@ -2536,9 +2471,9 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
+      <c r="AA44" s="47"/>
+      <c r="AB44" s="47"/>
+      <c r="AC44" s="47"/>
     </row>
     <row r="45" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -2566,9 +2501,9 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
-      <c r="AA45" s="30"/>
-      <c r="AB45" s="30"/>
-      <c r="AC45" s="30"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
     </row>
     <row r="46" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -2596,9 +2531,9 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
-      <c r="AA46" s="30"/>
-      <c r="AB46" s="30"/>
-      <c r="AC46" s="30"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
     </row>
     <row r="47" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -2626,9 +2561,9 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
-      <c r="AA47" s="30"/>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="30"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
     </row>
     <row r="48" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -2656,9 +2591,9 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
     </row>
     <row r="49" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -2686,9 +2621,9 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
-      <c r="AA49" s="30"/>
-      <c r="AB49" s="30"/>
-      <c r="AC49" s="30"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
+      <c r="AC49" s="47"/>
     </row>
     <row r="50" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
@@ -2716,9 +2651,9 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
-      <c r="AA50" s="30"/>
-      <c r="AB50" s="30"/>
-      <c r="AC50" s="30"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
     </row>
     <row r="51" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -2746,9 +2681,9 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
-      <c r="AA51" s="30"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="30"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
+      <c r="AC51" s="47"/>
     </row>
     <row r="52" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -2776,9 +2711,9 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
-      <c r="AA52" s="30"/>
-      <c r="AB52" s="30"/>
-      <c r="AC52" s="30"/>
+      <c r="AA52" s="47"/>
+      <c r="AB52" s="47"/>
+      <c r="AC52" s="47"/>
     </row>
     <row r="53" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
@@ -2806,9 +2741,9 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
-      <c r="AA53" s="30"/>
-      <c r="AB53" s="30"/>
-      <c r="AC53" s="30"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
+      <c r="AC53" s="47"/>
     </row>
     <row r="54" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -2836,9 +2771,9 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
-      <c r="AA54" s="30"/>
-      <c r="AB54" s="30"/>
-      <c r="AC54" s="30"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="47"/>
     </row>
     <row r="55" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -2866,9 +2801,9 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
-      <c r="AA55" s="30"/>
-      <c r="AB55" s="30"/>
-      <c r="AC55" s="30"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="47"/>
+      <c r="AC55" s="47"/>
     </row>
     <row r="56" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
@@ -2896,9 +2831,9 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
-      <c r="AA56" s="30"/>
-      <c r="AB56" s="30"/>
-      <c r="AC56" s="30"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="47"/>
+      <c r="AC56" s="47"/>
     </row>
     <row r="57" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -2926,9 +2861,9 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
-      <c r="AA57" s="30"/>
-      <c r="AB57" s="30"/>
-      <c r="AC57" s="30"/>
+      <c r="AA57" s="47"/>
+      <c r="AB57" s="47"/>
+      <c r="AC57" s="47"/>
     </row>
     <row r="58" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -2956,9 +2891,9 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
-      <c r="AA58" s="30"/>
-      <c r="AB58" s="30"/>
-      <c r="AC58" s="30"/>
+      <c r="AA58" s="47"/>
+      <c r="AB58" s="47"/>
+      <c r="AC58" s="47"/>
     </row>
     <row r="59" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -2986,9 +2921,9 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
-      <c r="AA59" s="30"/>
-      <c r="AB59" s="30"/>
-      <c r="AC59" s="30"/>
+      <c r="AA59" s="47"/>
+      <c r="AB59" s="47"/>
+      <c r="AC59" s="47"/>
     </row>
     <row r="60" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
@@ -3016,9 +2951,9 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
-      <c r="AA60" s="30"/>
-      <c r="AB60" s="30"/>
-      <c r="AC60" s="30"/>
+      <c r="AA60" s="47"/>
+      <c r="AB60" s="47"/>
+      <c r="AC60" s="47"/>
     </row>
     <row r="61" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -3046,9 +2981,9 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
-      <c r="AA61" s="30"/>
-      <c r="AB61" s="30"/>
-      <c r="AC61" s="30"/>
+      <c r="AA61" s="47"/>
+      <c r="AB61" s="47"/>
+      <c r="AC61" s="47"/>
     </row>
     <row r="62" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -3076,9 +3011,9 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
-      <c r="AA62" s="30"/>
-      <c r="AB62" s="30"/>
-      <c r="AC62" s="30"/>
+      <c r="AA62" s="47"/>
+      <c r="AB62" s="47"/>
+      <c r="AC62" s="47"/>
     </row>
     <row r="63" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -3106,9 +3041,9 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
-      <c r="AA63" s="30"/>
-      <c r="AB63" s="30"/>
-      <c r="AC63" s="30"/>
+      <c r="AA63" s="47"/>
+      <c r="AB63" s="47"/>
+      <c r="AC63" s="47"/>
     </row>
     <row r="64" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -3136,9 +3071,9 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
-      <c r="AA64" s="30"/>
-      <c r="AB64" s="30"/>
-      <c r="AC64" s="30"/>
+      <c r="AA64" s="47"/>
+      <c r="AB64" s="47"/>
+      <c r="AC64" s="47"/>
     </row>
     <row r="65" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
@@ -3166,9 +3101,9 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
-      <c r="AA65" s="30"/>
-      <c r="AB65" s="30"/>
-      <c r="AC65" s="30"/>
+      <c r="AA65" s="47"/>
+      <c r="AB65" s="47"/>
+      <c r="AC65" s="47"/>
     </row>
     <row r="66" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -3196,9 +3131,9 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
-      <c r="AA66" s="30"/>
-      <c r="AB66" s="30"/>
-      <c r="AC66" s="30"/>
+      <c r="AA66" s="47"/>
+      <c r="AB66" s="47"/>
+      <c r="AC66" s="47"/>
     </row>
     <row r="67" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
@@ -3226,9 +3161,9 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
-      <c r="AA67" s="30"/>
-      <c r="AB67" s="30"/>
-      <c r="AC67" s="30"/>
+      <c r="AA67" s="47"/>
+      <c r="AB67" s="47"/>
+      <c r="AC67" s="47"/>
     </row>
     <row r="68" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -3256,9 +3191,9 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
-      <c r="AA68" s="30"/>
-      <c r="AB68" s="30"/>
-      <c r="AC68" s="30"/>
+      <c r="AA68" s="47"/>
+      <c r="AB68" s="47"/>
+      <c r="AC68" s="47"/>
     </row>
     <row r="69" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
@@ -3286,9 +3221,9 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
-      <c r="AA69" s="30"/>
-      <c r="AB69" s="30"/>
-      <c r="AC69" s="30"/>
+      <c r="AA69" s="47"/>
+      <c r="AB69" s="47"/>
+      <c r="AC69" s="47"/>
     </row>
     <row r="70" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
@@ -3316,9 +3251,9 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
-      <c r="AA70" s="30"/>
-      <c r="AB70" s="30"/>
-      <c r="AC70" s="30"/>
+      <c r="AA70" s="47"/>
+      <c r="AB70" s="47"/>
+      <c r="AC70" s="47"/>
     </row>
     <row r="71" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -3346,9 +3281,9 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
-      <c r="AA71" s="30"/>
-      <c r="AB71" s="30"/>
-      <c r="AC71" s="30"/>
+      <c r="AA71" s="47"/>
+      <c r="AB71" s="47"/>
+      <c r="AC71" s="47"/>
     </row>
     <row r="72" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
@@ -3376,9 +3311,9 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
-      <c r="AA72" s="30"/>
-      <c r="AB72" s="30"/>
-      <c r="AC72" s="30"/>
+      <c r="AA72" s="47"/>
+      <c r="AB72" s="47"/>
+      <c r="AC72" s="47"/>
     </row>
     <row r="73" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
@@ -3406,9 +3341,9 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
-      <c r="AA73" s="30"/>
-      <c r="AB73" s="30"/>
-      <c r="AC73" s="30"/>
+      <c r="AA73" s="47"/>
+      <c r="AB73" s="47"/>
+      <c r="AC73" s="47"/>
     </row>
     <row r="74" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
@@ -3436,9 +3371,9 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
-      <c r="AA74" s="30"/>
-      <c r="AB74" s="30"/>
-      <c r="AC74" s="30"/>
+      <c r="AA74" s="47"/>
+      <c r="AB74" s="47"/>
+      <c r="AC74" s="47"/>
     </row>
     <row r="75" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -3466,9 +3401,9 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
-      <c r="AA75" s="30"/>
-      <c r="AB75" s="30"/>
-      <c r="AC75" s="30"/>
+      <c r="AA75" s="47"/>
+      <c r="AB75" s="47"/>
+      <c r="AC75" s="47"/>
     </row>
     <row r="76" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -3496,9 +3431,9 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
-      <c r="AA76" s="30"/>
-      <c r="AB76" s="30"/>
-      <c r="AC76" s="30"/>
+      <c r="AA76" s="47"/>
+      <c r="AB76" s="47"/>
+      <c r="AC76" s="47"/>
     </row>
     <row r="77" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
@@ -3526,9 +3461,9 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
-      <c r="AA77" s="30"/>
-      <c r="AB77" s="30"/>
-      <c r="AC77" s="30"/>
+      <c r="AA77" s="47"/>
+      <c r="AB77" s="47"/>
+      <c r="AC77" s="47"/>
     </row>
     <row r="78" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -3556,9 +3491,9 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
-      <c r="AA78" s="30"/>
-      <c r="AB78" s="30"/>
-      <c r="AC78" s="30"/>
+      <c r="AA78" s="47"/>
+      <c r="AB78" s="47"/>
+      <c r="AC78" s="47"/>
     </row>
     <row r="79" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -3586,9 +3521,9 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
-      <c r="AA79" s="30"/>
-      <c r="AB79" s="30"/>
-      <c r="AC79" s="30"/>
+      <c r="AA79" s="47"/>
+      <c r="AB79" s="47"/>
+      <c r="AC79" s="47"/>
     </row>
     <row r="80" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
@@ -3616,9 +3551,9 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
-      <c r="AA80" s="30"/>
-      <c r="AB80" s="30"/>
-      <c r="AC80" s="30"/>
+      <c r="AA80" s="47"/>
+      <c r="AB80" s="47"/>
+      <c r="AC80" s="47"/>
     </row>
     <row r="81" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -3646,9 +3581,9 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
-      <c r="AA81" s="30"/>
-      <c r="AB81" s="30"/>
-      <c r="AC81" s="30"/>
+      <c r="AA81" s="47"/>
+      <c r="AB81" s="47"/>
+      <c r="AC81" s="47"/>
     </row>
     <row r="82" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
@@ -3676,9 +3611,9 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
-      <c r="AA82" s="30"/>
-      <c r="AB82" s="30"/>
-      <c r="AC82" s="30"/>
+      <c r="AA82" s="47"/>
+      <c r="AB82" s="47"/>
+      <c r="AC82" s="47"/>
     </row>
     <row r="83" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -3706,9 +3641,9 @@
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
-      <c r="AA83" s="30"/>
-      <c r="AB83" s="30"/>
-      <c r="AC83" s="30"/>
+      <c r="AA83" s="47"/>
+      <c r="AB83" s="47"/>
+      <c r="AC83" s="47"/>
     </row>
     <row r="84" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -3736,9 +3671,9 @@
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
-      <c r="AA84" s="30"/>
-      <c r="AB84" s="30"/>
-      <c r="AC84" s="30"/>
+      <c r="AA84" s="47"/>
+      <c r="AB84" s="47"/>
+      <c r="AC84" s="47"/>
     </row>
     <row r="85" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -3766,9 +3701,9 @@
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
-      <c r="AA85" s="30"/>
-      <c r="AB85" s="30"/>
-      <c r="AC85" s="30"/>
+      <c r="AA85" s="47"/>
+      <c r="AB85" s="47"/>
+      <c r="AC85" s="47"/>
     </row>
     <row r="86" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
@@ -3796,9 +3731,9 @@
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
-      <c r="AA86" s="30"/>
-      <c r="AB86" s="30"/>
-      <c r="AC86" s="30"/>
+      <c r="AA86" s="47"/>
+      <c r="AB86" s="47"/>
+      <c r="AC86" s="47"/>
     </row>
     <row r="87" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
@@ -3826,9 +3761,9 @@
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
-      <c r="AA87" s="30"/>
-      <c r="AB87" s="30"/>
-      <c r="AC87" s="30"/>
+      <c r="AA87" s="47"/>
+      <c r="AB87" s="47"/>
+      <c r="AC87" s="47"/>
     </row>
     <row r="88" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -3856,9 +3791,9 @@
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
-      <c r="AA88" s="30"/>
-      <c r="AB88" s="30"/>
-      <c r="AC88" s="30"/>
+      <c r="AA88" s="47"/>
+      <c r="AB88" s="47"/>
+      <c r="AC88" s="47"/>
     </row>
     <row r="89" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
@@ -3886,9 +3821,9 @@
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
-      <c r="AA89" s="30"/>
-      <c r="AB89" s="30"/>
-      <c r="AC89" s="30"/>
+      <c r="AA89" s="47"/>
+      <c r="AB89" s="47"/>
+      <c r="AC89" s="47"/>
     </row>
     <row r="90" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
@@ -3916,9 +3851,9 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
-      <c r="AA90" s="30"/>
-      <c r="AB90" s="30"/>
-      <c r="AC90" s="30"/>
+      <c r="AA90" s="47"/>
+      <c r="AB90" s="47"/>
+      <c r="AC90" s="47"/>
     </row>
     <row r="91" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
@@ -3946,9 +3881,9 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
-      <c r="AA91" s="30"/>
-      <c r="AB91" s="30"/>
-      <c r="AC91" s="30"/>
+      <c r="AA91" s="47"/>
+      <c r="AB91" s="47"/>
+      <c r="AC91" s="47"/>
     </row>
     <row r="92" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
@@ -3976,9 +3911,9 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
-      <c r="AA92" s="30"/>
-      <c r="AB92" s="30"/>
-      <c r="AC92" s="30"/>
+      <c r="AA92" s="47"/>
+      <c r="AB92" s="47"/>
+      <c r="AC92" s="47"/>
     </row>
     <row r="93" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
@@ -4006,9 +3941,9 @@
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
-      <c r="AA93" s="30"/>
-      <c r="AB93" s="30"/>
-      <c r="AC93" s="30"/>
+      <c r="AA93" s="47"/>
+      <c r="AB93" s="47"/>
+      <c r="AC93" s="47"/>
     </row>
     <row r="94" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
@@ -4036,9 +3971,9 @@
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
-      <c r="AA94" s="30"/>
-      <c r="AB94" s="30"/>
-      <c r="AC94" s="30"/>
+      <c r="AA94" s="47"/>
+      <c r="AB94" s="47"/>
+      <c r="AC94" s="47"/>
     </row>
     <row r="95" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
@@ -4066,9 +4001,9 @@
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
-      <c r="AA95" s="30"/>
-      <c r="AB95" s="30"/>
-      <c r="AC95" s="30"/>
+      <c r="AA95" s="47"/>
+      <c r="AB95" s="47"/>
+      <c r="AC95" s="47"/>
     </row>
     <row r="96" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
@@ -4096,9 +4031,9 @@
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
-      <c r="AA96" s="30"/>
-      <c r="AB96" s="30"/>
-      <c r="AC96" s="30"/>
+      <c r="AA96" s="47"/>
+      <c r="AB96" s="47"/>
+      <c r="AC96" s="47"/>
     </row>
     <row r="97" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
@@ -4134,9 +4069,9 @@
       <c r="Y97" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AA97" s="30"/>
-      <c r="AB97" s="30"/>
-      <c r="AC97" s="30"/>
+      <c r="AA97" s="47"/>
+      <c r="AB97" s="47"/>
+      <c r="AC97" s="47"/>
     </row>
     <row r="98" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
@@ -4172,9 +4107,9 @@
       <c r="Y98" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AA98" s="30"/>
-      <c r="AB98" s="30"/>
-      <c r="AC98" s="30"/>
+      <c r="AA98" s="47"/>
+      <c r="AB98" s="47"/>
+      <c r="AC98" s="47"/>
     </row>
     <row r="99" spans="1:29" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
@@ -4210,51 +4145,51 @@
       <c r="Y99" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AA99" s="30"/>
-      <c r="AB99" s="30"/>
-      <c r="AC99" s="30"/>
+      <c r="AA99" s="47"/>
+      <c r="AB99" s="47"/>
+      <c r="AC99" s="47"/>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AA100" s="30"/>
-      <c r="AB100" s="30"/>
-      <c r="AC100" s="30"/>
+      <c r="AA100" s="47"/>
+      <c r="AB100" s="47"/>
+      <c r="AC100" s="47"/>
     </row>
     <row r="101" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="37"/>
-      <c r="M101" s="38" t="s">
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="N101" s="39"/>
-      <c r="O101" s="40"/>
-      <c r="P101" s="47" t="s">
+      <c r="N101" s="29"/>
+      <c r="O101" s="30"/>
+      <c r="P101" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q101" s="48"/>
-      <c r="R101" s="47" t="s">
+      <c r="Q101" s="38"/>
+      <c r="R101" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="S101" s="53"/>
-      <c r="T101" s="48"/>
-      <c r="U101" s="47" t="s">
+      <c r="S101" s="43"/>
+      <c r="T101" s="38"/>
+      <c r="U101" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="V101" s="48"/>
-      <c r="AA101" s="30"/>
-      <c r="AB101" s="30"/>
-      <c r="AC101" s="30"/>
+      <c r="V101" s="38"/>
+      <c r="AA101" s="47"/>
+      <c r="AB101" s="47"/>
+      <c r="AC101" s="47"/>
     </row>
     <row r="102" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
@@ -4271,165 +4206,165 @@
       <c r="J102" s="15"/>
       <c r="K102" s="15"/>
       <c r="L102" s="15"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="42"/>
-      <c r="O102" s="43"/>
-      <c r="P102" s="49"/>
-      <c r="Q102" s="50"/>
-      <c r="R102" s="49"/>
-      <c r="S102" s="54"/>
-      <c r="T102" s="50"/>
-      <c r="U102" s="49"/>
-      <c r="V102" s="50"/>
-      <c r="AA102" s="30"/>
-      <c r="AB102" s="30"/>
-      <c r="AC102" s="30"/>
+      <c r="M102" s="31"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="33"/>
+      <c r="P102" s="39"/>
+      <c r="Q102" s="40"/>
+      <c r="R102" s="39"/>
+      <c r="S102" s="44"/>
+      <c r="T102" s="40"/>
+      <c r="U102" s="39"/>
+      <c r="V102" s="40"/>
+      <c r="AA102" s="47"/>
+      <c r="AB102" s="47"/>
+      <c r="AC102" s="47"/>
     </row>
     <row r="103" spans="1:29" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="M103" s="41"/>
-      <c r="N103" s="42"/>
-      <c r="O103" s="43"/>
-      <c r="P103" s="49"/>
-      <c r="Q103" s="50"/>
-      <c r="R103" s="49"/>
-      <c r="S103" s="54"/>
-      <c r="T103" s="50"/>
-      <c r="U103" s="49"/>
-      <c r="V103" s="50"/>
-      <c r="AA103" s="30"/>
-      <c r="AB103" s="30"/>
-      <c r="AC103" s="30"/>
+      <c r="M103" s="31"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="33"/>
+      <c r="P103" s="39"/>
+      <c r="Q103" s="40"/>
+      <c r="R103" s="39"/>
+      <c r="S103" s="44"/>
+      <c r="T103" s="40"/>
+      <c r="U103" s="39"/>
+      <c r="V103" s="40"/>
+      <c r="AA103" s="47"/>
+      <c r="AB103" s="47"/>
+      <c r="AC103" s="47"/>
     </row>
     <row r="104" spans="1:29" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="M104" s="41"/>
-      <c r="N104" s="42"/>
-      <c r="O104" s="43"/>
-      <c r="P104" s="49"/>
-      <c r="Q104" s="50"/>
-      <c r="R104" s="49"/>
-      <c r="S104" s="54"/>
-      <c r="T104" s="50"/>
-      <c r="U104" s="49"/>
-      <c r="V104" s="50"/>
+      <c r="M104" s="31"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="33"/>
+      <c r="P104" s="39"/>
+      <c r="Q104" s="40"/>
+      <c r="R104" s="39"/>
+      <c r="S104" s="44"/>
+      <c r="T104" s="40"/>
+      <c r="U104" s="39"/>
+      <c r="V104" s="40"/>
     </row>
     <row r="105" spans="1:29" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="M105" s="41"/>
-      <c r="N105" s="42"/>
-      <c r="O105" s="43"/>
-      <c r="P105" s="49"/>
-      <c r="Q105" s="50"/>
-      <c r="R105" s="49"/>
-      <c r="S105" s="54"/>
-      <c r="T105" s="50"/>
-      <c r="U105" s="49"/>
-      <c r="V105" s="50"/>
+      <c r="M105" s="31"/>
+      <c r="N105" s="32"/>
+      <c r="O105" s="33"/>
+      <c r="P105" s="39"/>
+      <c r="Q105" s="40"/>
+      <c r="R105" s="39"/>
+      <c r="S105" s="44"/>
+      <c r="T105" s="40"/>
+      <c r="U105" s="39"/>
+      <c r="V105" s="40"/>
     </row>
     <row r="106" spans="1:29" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="M106" s="41"/>
-      <c r="N106" s="42"/>
-      <c r="O106" s="43"/>
-      <c r="P106" s="49"/>
-      <c r="Q106" s="50"/>
-      <c r="R106" s="49"/>
-      <c r="S106" s="54"/>
-      <c r="T106" s="50"/>
-      <c r="U106" s="49"/>
-      <c r="V106" s="50"/>
+      <c r="M106" s="31"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="33"/>
+      <c r="P106" s="39"/>
+      <c r="Q106" s="40"/>
+      <c r="R106" s="39"/>
+      <c r="S106" s="44"/>
+      <c r="T106" s="40"/>
+      <c r="U106" s="39"/>
+      <c r="V106" s="40"/>
     </row>
     <row r="107" spans="1:29" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M107" s="41"/>
-      <c r="N107" s="42"/>
-      <c r="O107" s="43"/>
-      <c r="P107" s="49"/>
-      <c r="Q107" s="50"/>
-      <c r="R107" s="49"/>
-      <c r="S107" s="54"/>
-      <c r="T107" s="50"/>
-      <c r="U107" s="49"/>
-      <c r="V107" s="50"/>
+      <c r="M107" s="31"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="33"/>
+      <c r="P107" s="39"/>
+      <c r="Q107" s="40"/>
+      <c r="R107" s="39"/>
+      <c r="S107" s="44"/>
+      <c r="T107" s="40"/>
+      <c r="U107" s="39"/>
+      <c r="V107" s="40"/>
     </row>
     <row r="108" spans="1:29" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M108" s="44"/>
-      <c r="N108" s="45"/>
-      <c r="O108" s="46"/>
-      <c r="P108" s="51"/>
-      <c r="Q108" s="52"/>
-      <c r="R108" s="51"/>
-      <c r="S108" s="55"/>
-      <c r="T108" s="52"/>
-      <c r="U108" s="51"/>
-      <c r="V108" s="52"/>
+      <c r="M108" s="34"/>
+      <c r="N108" s="35"/>
+      <c r="O108" s="36"/>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="42"/>
+      <c r="R108" s="41"/>
+      <c r="S108" s="45"/>
+      <c r="T108" s="42"/>
+      <c r="U108" s="41"/>
+      <c r="V108" s="42"/>
     </row>
     <row r="109" spans="1:29" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="M109" s="31" t="s">
+      <c r="M109" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="N109" s="31"/>
-      <c r="O109" s="31"/>
-      <c r="P109" s="31" t="s">
+      <c r="N109" s="48"/>
+      <c r="O109" s="48"/>
+      <c r="P109" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="Q109" s="31"/>
-      <c r="R109" s="31" t="s">
+      <c r="Q109" s="48"/>
+      <c r="R109" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="S109" s="31"/>
-      <c r="T109" s="31"/>
-      <c r="U109" s="31" t="s">
+      <c r="S109" s="48"/>
+      <c r="T109" s="48"/>
+      <c r="U109" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="V109" s="31"/>
+      <c r="V109" s="48"/>
     </row>
     <row r="110" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="M110" s="31"/>
-      <c r="N110" s="31"/>
-      <c r="O110" s="31"/>
-      <c r="P110" s="31"/>
-      <c r="Q110" s="31"/>
-      <c r="R110" s="31"/>
-      <c r="S110" s="31"/>
-      <c r="T110" s="31"/>
-      <c r="U110" s="31"/>
-      <c r="V110" s="31"/>
+      <c r="M110" s="48"/>
+      <c r="N110" s="48"/>
+      <c r="O110" s="48"/>
+      <c r="P110" s="48"/>
+      <c r="Q110" s="48"/>
+      <c r="R110" s="48"/>
+      <c r="S110" s="48"/>
+      <c r="T110" s="48"/>
+      <c r="U110" s="48"/>
+      <c r="V110" s="48"/>
     </row>
     <row r="111" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="M111" s="32"/>
-      <c r="N111" s="32"/>
-      <c r="O111" s="32"/>
-      <c r="P111" s="32"/>
-      <c r="Q111" s="32"/>
-      <c r="R111" s="32"/>
-      <c r="S111" s="32"/>
-      <c r="T111" s="32"/>
-      <c r="U111" s="32"/>
-      <c r="V111" s="32"/>
+      <c r="M111" s="49"/>
+      <c r="N111" s="49"/>
+      <c r="O111" s="49"/>
+      <c r="P111" s="49"/>
+      <c r="Q111" s="49"/>
+      <c r="R111" s="49"/>
+      <c r="S111" s="49"/>
+      <c r="T111" s="49"/>
+      <c r="U111" s="49"/>
+      <c r="V111" s="49"/>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C112" s="22"/>
@@ -4439,16 +4374,16 @@
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
-      <c r="M112" s="32"/>
-      <c r="N112" s="32"/>
-      <c r="O112" s="32"/>
-      <c r="P112" s="32"/>
-      <c r="Q112" s="32"/>
-      <c r="R112" s="32"/>
-      <c r="S112" s="32"/>
-      <c r="T112" s="32"/>
-      <c r="U112" s="32"/>
-      <c r="V112" s="32"/>
+      <c r="M112" s="49"/>
+      <c r="N112" s="49"/>
+      <c r="O112" s="49"/>
+      <c r="P112" s="49"/>
+      <c r="Q112" s="49"/>
+      <c r="R112" s="49"/>
+      <c r="S112" s="49"/>
+      <c r="T112" s="49"/>
+      <c r="U112" s="49"/>
+      <c r="V112" s="49"/>
     </row>
     <row r="113" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B113" s="23"/>
@@ -4459,16 +4394,16 @@
       <c r="G113" s="22"/>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
-      <c r="M113" s="32"/>
-      <c r="N113" s="32"/>
-      <c r="O113" s="32"/>
-      <c r="P113" s="32"/>
-      <c r="Q113" s="32"/>
-      <c r="R113" s="32"/>
-      <c r="S113" s="32"/>
-      <c r="T113" s="32"/>
-      <c r="U113" s="32"/>
-      <c r="V113" s="32"/>
+      <c r="M113" s="49"/>
+      <c r="N113" s="49"/>
+      <c r="O113" s="49"/>
+      <c r="P113" s="49"/>
+      <c r="Q113" s="49"/>
+      <c r="R113" s="49"/>
+      <c r="S113" s="49"/>
+      <c r="T113" s="49"/>
+      <c r="U113" s="49"/>
+      <c r="V113" s="49"/>
     </row>
     <row r="114" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B114" s="23"/>
@@ -4479,143 +4414,123 @@
       <c r="G114" s="22"/>
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
-      <c r="M114" s="32"/>
-      <c r="N114" s="32"/>
-      <c r="O114" s="32"/>
-      <c r="P114" s="32"/>
-      <c r="Q114" s="32"/>
-      <c r="R114" s="32"/>
-      <c r="S114" s="32"/>
-      <c r="T114" s="32"/>
-      <c r="U114" s="32"/>
-      <c r="V114" s="32"/>
+      <c r="M114" s="49"/>
+      <c r="N114" s="49"/>
+      <c r="O114" s="49"/>
+      <c r="P114" s="49"/>
+      <c r="Q114" s="49"/>
+      <c r="R114" s="49"/>
+      <c r="S114" s="49"/>
+      <c r="T114" s="49"/>
+      <c r="U114" s="49"/>
+      <c r="V114" s="49"/>
     </row>
     <row r="115" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M115" s="32"/>
-      <c r="N115" s="32"/>
-      <c r="O115" s="32"/>
-      <c r="P115" s="32"/>
-      <c r="Q115" s="32"/>
-      <c r="R115" s="32"/>
-      <c r="S115" s="32"/>
-      <c r="T115" s="32"/>
-      <c r="U115" s="32"/>
-      <c r="V115" s="32"/>
+      <c r="M115" s="49"/>
+      <c r="N115" s="49"/>
+      <c r="O115" s="49"/>
+      <c r="P115" s="49"/>
+      <c r="Q115" s="49"/>
+      <c r="R115" s="49"/>
+      <c r="S115" s="49"/>
+      <c r="T115" s="49"/>
+      <c r="U115" s="49"/>
+      <c r="V115" s="49"/>
     </row>
     <row r="116" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M116" s="32"/>
-      <c r="N116" s="32"/>
-      <c r="O116" s="32"/>
-      <c r="P116" s="32"/>
-      <c r="Q116" s="32"/>
-      <c r="R116" s="32"/>
-      <c r="S116" s="32"/>
-      <c r="T116" s="32"/>
-      <c r="U116" s="32"/>
-      <c r="V116" s="32"/>
+      <c r="M116" s="49"/>
+      <c r="N116" s="49"/>
+      <c r="O116" s="49"/>
+      <c r="P116" s="49"/>
+      <c r="Q116" s="49"/>
+      <c r="R116" s="49"/>
+      <c r="S116" s="49"/>
+      <c r="T116" s="49"/>
+      <c r="U116" s="49"/>
+      <c r="V116" s="49"/>
     </row>
     <row r="117" spans="2:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M117" s="32"/>
-      <c r="N117" s="32"/>
-      <c r="O117" s="32"/>
-      <c r="P117" s="32"/>
-      <c r="Q117" s="32"/>
-      <c r="R117" s="32"/>
-      <c r="S117" s="32"/>
-      <c r="T117" s="32"/>
-      <c r="U117" s="32"/>
-      <c r="V117" s="32"/>
+      <c r="M117" s="49"/>
+      <c r="N117" s="49"/>
+      <c r="O117" s="49"/>
+      <c r="P117" s="49"/>
+      <c r="Q117" s="49"/>
+      <c r="R117" s="49"/>
+      <c r="S117" s="49"/>
+      <c r="T117" s="49"/>
+      <c r="U117" s="49"/>
+      <c r="V117" s="49"/>
     </row>
     <row r="118" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M118" s="32"/>
-      <c r="N118" s="32"/>
-      <c r="O118" s="32"/>
-      <c r="P118" s="32"/>
-      <c r="Q118" s="32"/>
-      <c r="R118" s="32"/>
-      <c r="S118" s="32"/>
-      <c r="T118" s="32"/>
-      <c r="U118" s="32"/>
-      <c r="V118" s="32"/>
+      <c r="M118" s="49"/>
+      <c r="N118" s="49"/>
+      <c r="O118" s="49"/>
+      <c r="P118" s="49"/>
+      <c r="Q118" s="49"/>
+      <c r="R118" s="49"/>
+      <c r="S118" s="49"/>
+      <c r="T118" s="49"/>
+      <c r="U118" s="49"/>
+      <c r="V118" s="49"/>
     </row>
     <row r="119" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M119" s="32"/>
-      <c r="N119" s="32"/>
-      <c r="O119" s="32"/>
-      <c r="P119" s="32"/>
-      <c r="Q119" s="32"/>
-      <c r="R119" s="32"/>
-      <c r="S119" s="32"/>
-      <c r="T119" s="32"/>
-      <c r="U119" s="32"/>
-      <c r="V119" s="32"/>
+      <c r="M119" s="49"/>
+      <c r="N119" s="49"/>
+      <c r="O119" s="49"/>
+      <c r="P119" s="49"/>
+      <c r="Q119" s="49"/>
+      <c r="R119" s="49"/>
+      <c r="S119" s="49"/>
+      <c r="T119" s="49"/>
+      <c r="U119" s="49"/>
+      <c r="V119" s="49"/>
     </row>
     <row r="120" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M120" s="29" t="s">
+      <c r="M120" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="N120" s="29"/>
-      <c r="O120" s="29"/>
-      <c r="P120" s="29" t="s">
+      <c r="N120" s="46"/>
+      <c r="O120" s="46"/>
+      <c r="P120" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="Q120" s="29"/>
-      <c r="R120" s="29" t="s">
+      <c r="Q120" s="46"/>
+      <c r="R120" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="S120" s="29"/>
-      <c r="T120" s="29"/>
-      <c r="U120" s="29" t="s">
+      <c r="S120" s="46"/>
+      <c r="T120" s="46"/>
+      <c r="U120" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="V120" s="29"/>
+      <c r="V120" s="46"/>
     </row>
     <row r="121" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M121" s="29"/>
-      <c r="N121" s="29"/>
-      <c r="O121" s="29"/>
-      <c r="P121" s="29"/>
-      <c r="Q121" s="29"/>
-      <c r="R121" s="29"/>
-      <c r="S121" s="29"/>
-      <c r="T121" s="29"/>
-      <c r="U121" s="29"/>
-      <c r="V121" s="29"/>
+      <c r="M121" s="46"/>
+      <c r="N121" s="46"/>
+      <c r="O121" s="46"/>
+      <c r="P121" s="46"/>
+      <c r="Q121" s="46"/>
+      <c r="R121" s="46"/>
+      <c r="S121" s="46"/>
+      <c r="T121" s="46"/>
+      <c r="U121" s="46"/>
+      <c r="V121" s="46"/>
     </row>
     <row r="122" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M122" s="29"/>
-      <c r="N122" s="29"/>
-      <c r="O122" s="29"/>
-      <c r="P122" s="29"/>
-      <c r="Q122" s="29"/>
-      <c r="R122" s="29"/>
-      <c r="S122" s="29"/>
-      <c r="T122" s="29"/>
-      <c r="U122" s="29"/>
-      <c r="V122" s="29"/>
+      <c r="M122" s="46"/>
+      <c r="N122" s="46"/>
+      <c r="O122" s="46"/>
+      <c r="P122" s="46"/>
+      <c r="Q122" s="46"/>
+      <c r="R122" s="46"/>
+      <c r="S122" s="46"/>
+      <c r="T122" s="46"/>
+      <c r="U122" s="46"/>
+      <c r="V122" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="R5:Y5"/>
-    <mergeCell ref="B101:L101"/>
-    <mergeCell ref="M101:O108"/>
-    <mergeCell ref="P101:Q108"/>
-    <mergeCell ref="R101:T108"/>
-    <mergeCell ref="U101:V108"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:Q5"/>
     <mergeCell ref="M120:O122"/>
     <mergeCell ref="P120:Q122"/>
     <mergeCell ref="R120:T122"/>
@@ -4629,6 +4544,26 @@
     <mergeCell ref="P111:Q119"/>
     <mergeCell ref="R111:T119"/>
     <mergeCell ref="U111:V119"/>
+    <mergeCell ref="R5:Y5"/>
+    <mergeCell ref="B101:L101"/>
+    <mergeCell ref="M101:O108"/>
+    <mergeCell ref="P101:Q108"/>
+    <mergeCell ref="R101:T108"/>
+    <mergeCell ref="U101:V108"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
